--- a/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Product Backlog.xlsx
+++ b/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Product Backlog.xlsx
@@ -172,6 +172,9 @@
     <t>Como usuario quiero saber si existen novedades en la página web para tener conocimiento de alguna publicación q me interese.</t>
   </si>
   <si>
+    <t>2 hrs</t>
+  </si>
+  <si>
     <t>E05-H17</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>Como usuario quiero poder encontrar fácilmente la información de contacto de la página para poder comunicarse en caso de ser necesario.</t>
-  </si>
-  <si>
-    <t>2 hrs</t>
   </si>
   <si>
     <t>E07-H21</t>
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J18" s="9">
         <v>3.0</v>
@@ -1016,10 +1016,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1036,16 +1036,16 @@
         <v>3.0</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1082,7 +1082,7 @@
         <v>9</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J21" s="9">
         <v>3.0</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1108,7 +1108,7 @@
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J22" s="9">
         <v>1.0</v>
@@ -1134,13 +1134,13 @@
         <v>9</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J23" s="9">
         <v>2.0</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L23" s="10"/>
     </row>
@@ -1162,11 +1162,9 @@
       <c r="I24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="9">
-        <v>3.0</v>
-      </c>
+      <c r="J24" s="9"/>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L24" s="10"/>
     </row>
@@ -1218,7 +1216,7 @@
         <v>1.0</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L26" s="10"/>
     </row>
@@ -1238,7 +1236,7 @@
         <v>9</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J27" s="9">
         <v>2.0</v>

--- a/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Product Backlog.xlsx
+++ b/Fase 2/Evidencias Proyecto/Documentos Generales Sprint/Product Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>Historia</t>
   </si>
@@ -40,114 +40,111 @@
     <t>Como usuario quiero poder acceder al sistema mediante un formulario de inicio de sesión para poder acceder a las funciones del sistema.</t>
   </si>
   <si>
+    <t>Terminada</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>E01-H02</t>
+  </si>
+  <si>
+    <t>Como administrador quiero poder asignar roles a los usuarios para limitar su acceso a ciertas funciones del sistema.</t>
+  </si>
+  <si>
+    <t>6 hrs</t>
+  </si>
+  <si>
+    <t>E01-H03</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder restablecer mi contraseña en caso de olvido o pérdida.</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>E02-H04</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder agendar una cita medica para no tener que ir a pedirla presencial.</t>
+  </si>
+  <si>
+    <t>9 hrs</t>
+  </si>
+  <si>
+    <t>E02-H05</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder modificar la fecha de mis citas medica para tener un control claro de mi agenda diaria.</t>
+  </si>
+  <si>
+    <t>5 hrs</t>
+  </si>
+  <si>
+    <t>E02-H06</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder cancelar mi cita medica para atender otros asuntos.</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>E02-H07</t>
+  </si>
+  <si>
+    <t>Como medico quiero poder ver las citas medicas de mis pacientes para tener un control de mi agenda</t>
+  </si>
+  <si>
+    <t>E02-H08</t>
+  </si>
+  <si>
+    <t>Como medico quiero poder gestionar las citas medicas de mis pacientes para tener un control de mi agenda.</t>
+  </si>
+  <si>
+    <t>E03-H09</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder acceder a mi historial medico para tener un seguimiento de mi salud.</t>
+  </si>
+  <si>
+    <t>E03-H10</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder acceder a mi historial medico para poder descargar informes y recetas.</t>
+  </si>
+  <si>
+    <t>10 hrs</t>
+  </si>
+  <si>
+    <t>E03-H11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como medico quiero poder crear el historial medico de mi paciente para registrar sus diagnosticos y tratamientos.	</t>
+  </si>
+  <si>
+    <t>E03-H12</t>
+  </si>
+  <si>
+    <t>Como medico quiero poder gestionar el historial medico de mis pacientes para registrar sus nuevos diagnosticos y tratamientos.</t>
+  </si>
+  <si>
+    <t>E04-H13</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder recibir mis recetas médicas electrónicas después de una consulta para no depender de formatos físicos y acceder a ellas en cualquier momento.</t>
+  </si>
+  <si>
     <t>No iniciada</t>
   </si>
   <si>
-    <t>3 hrs</t>
-  </si>
-  <si>
-    <t>Alta</t>
-  </si>
-  <si>
-    <t>E01-H02</t>
-  </si>
-  <si>
-    <t>Como administrador quiero poder asignar roles a los usuarios para limitar su acceso a ciertas funciones del sistema.</t>
-  </si>
-  <si>
-    <t>6 hrs</t>
-  </si>
-  <si>
-    <t>E01-H03</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder restablecer mi contraseña en caso de olvido o pérdida.</t>
-  </si>
-  <si>
-    <t>1 hrs</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>E02-H04</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder agendar una cita medica para no tener que ir a pedirla presencial.</t>
-  </si>
-  <si>
-    <t>9 hrs</t>
-  </si>
-  <si>
-    <t>E02-H05</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder modificar la fecha de mis citas medica para tener un control claro de mi agenda diaria.</t>
-  </si>
-  <si>
-    <t>5 hrs</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>E02-H06</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder cancelar mi cita medica para atender otros asuntos.</t>
-  </si>
-  <si>
-    <t>4 hrs</t>
-  </si>
-  <si>
-    <t>E02-H07</t>
-  </si>
-  <si>
-    <t>Como medico quiero poder ver las citas medicas de mis pacientes para tener un control de mi agenda</t>
-  </si>
-  <si>
-    <t>Terminada</t>
-  </si>
-  <si>
-    <t>E02-H08</t>
-  </si>
-  <si>
-    <t>Como medico quiero poder gestionar las citas medicas de mis pacientes para tener un control de mi agenda.</t>
-  </si>
-  <si>
-    <t>E03-H09</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder acceder a mi historial medico para tener un seguimiento de mi salud.</t>
-  </si>
-  <si>
-    <t>E03-H10</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder acceder a mi historial medico para poder descargar informes y recetas.</t>
-  </si>
-  <si>
-    <t>10 hrs</t>
-  </si>
-  <si>
-    <t>E03-H11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como medico quiero poder crear el historial medico de mi paciente para registrar sus diagnosticos y tratamientos.	</t>
-  </si>
-  <si>
-    <t>E03-H12</t>
-  </si>
-  <si>
-    <t>Como medico quiero poder gestionar el historial medico de mis pacientes para registrar sus nuevos diagnosticos y tratamientos.</t>
-  </si>
-  <si>
-    <t>E04-H13</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder recibir mis recetas médicas electrónicas después de una consulta para no depender de formatos físicos y acceder a ellas en cualquier momento.</t>
-  </si>
-  <si>
     <t>E04-H14</t>
   </si>
   <si>
@@ -175,13 +172,13 @@
     <t>2 hrs</t>
   </si>
   <si>
+    <t>Baja</t>
+  </si>
+  <si>
     <t>E05-H17</t>
   </si>
   <si>
-    <t xml:space="preserve">Como administrador quiero poder modificar las nuevas noticias para mantaner informado al usuario de alguna novedad.	</t>
-  </si>
-  <si>
-    <t>Baja</t>
+    <t xml:space="preserve">Como administrador quiero poder modificar las nuevas noticias para mantaner informado al usuario de alguna novedad.        </t>
   </si>
   <si>
     <t>E06-H18</t>
@@ -199,37 +196,43 @@
     <t>7 hrs</t>
   </si>
   <si>
-    <t>E07-H20</t>
+    <t>E06-H20</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero crear usuarios médicos, para poder entregar las credenciales de acceso a los médicos.</t>
+  </si>
+  <si>
+    <t>E07-H21</t>
   </si>
   <si>
     <t>Como usuario quiero poder encontrar fácilmente la información de contacto de la página para poder comunicarse en caso de ser necesario.</t>
   </si>
   <si>
-    <t>E07-H21</t>
+    <t>E07-H22</t>
   </si>
   <si>
     <t>Como usuario quiero poder ver un mapa de ubicación en la página de contacto para poder ubicar fácilmente la dirección física del centro medico.</t>
   </si>
   <si>
-    <t>E07-H22</t>
+    <t>E07-H23</t>
   </si>
   <si>
     <t>Como usuario quiero poder enviar un mensaje a la empresa a través de un formulario de contacto en la página para realizar consultas o dejar comentarios.</t>
   </si>
   <si>
-    <t>E08-H23</t>
+    <t>E08-H24</t>
   </si>
   <si>
     <t>Como usuario quiero moverme rápidamente hacia las distintas secciones de la pagina para una facil navegación</t>
   </si>
   <si>
-    <t>E08-H24</t>
+    <t>E08-H25</t>
   </si>
   <si>
     <t>Como administrador quiero que la página cuente con un logo, el nombre de la ONG y una sección de inicio de sesión para mejorar la visualización de la página web</t>
   </si>
   <si>
-    <t>E09-H25</t>
+    <t>E09-H26</t>
   </si>
   <si>
     <t>Como usuario quiero que el sistema se adapte correctamente a cualquier dispositivo electrónico en el que lo esté visualizando para tener una experiencia de usuario consistente y cómoda.</t>
@@ -643,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="J4" s="9">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
@@ -724,16 +727,16 @@
         <v>2.0</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L7" s="10"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -744,7 +747,7 @@
         <v>9</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J8" s="9">
         <v>2.0</v>
@@ -756,10 +759,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -767,10 +770,10 @@
       <c r="F9" s="3"/>
       <c r="G9" s="4"/>
       <c r="H9" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="9">
         <v>1.0</v>
@@ -782,10 +785,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -793,7 +796,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="4"/>
       <c r="H10" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>24</v>
@@ -808,10 +811,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -828,16 +831,16 @@
         <v>2.0</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L11" s="10"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -848,22 +851,22 @@
         <v>9</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J12" s="9">
         <v>2.0</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L12" s="10"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -871,7 +874,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
       <c r="H13" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>21</v>
@@ -886,10 +889,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -897,7 +900,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
       <c r="H14" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>10</v>
@@ -906,16 +909,16 @@
         <v>1.0</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L14" s="10"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -923,7 +926,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>24</v>
@@ -938,10 +941,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -949,10 +952,10 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
       <c r="H16" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J16" s="9">
         <v>1.0</v>
@@ -964,10 +967,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -975,10 +978,10 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
       <c r="H17" s="7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="9">
         <v>3.0</v>
@@ -990,10 +993,10 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1004,13 +1007,13 @@
         <v>9</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18" s="9">
         <v>3.0</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -1036,16 +1039,16 @@
         <v>3.0</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>58</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1056,22 +1059,22 @@
         <v>9</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J20" s="9">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="L20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1082,22 +1085,22 @@
         <v>9</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="9">
         <v>3.0</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1105,25 +1108,25 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
       <c r="H22" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J22" s="9">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="L22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1134,22 +1137,22 @@
         <v>9</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" s="9">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="L23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1157,23 +1160,25 @@
       <c r="F24" s="3"/>
       <c r="G24" s="4"/>
       <c r="H24" s="7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J24" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2.0</v>
+      </c>
       <c r="K24" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1181,25 +1186,25 @@
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J25" s="9">
         <v>1.0</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="L25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1207,7 +1212,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="4"/>
       <c r="H26" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>17</v>
@@ -1216,16 +1221,16 @@
         <v>1.0</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L26" s="10"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1236,18 +1241,44 @@
         <v>9</v>
       </c>
       <c r="I27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="9">
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="9">
         <v>2.0</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="10"/>
+      <c r="K28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -1267,6 +1298,7 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="B18:G18"/>
@@ -1276,10 +1308,10 @@
     <mergeCell ref="B22:G22"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H3:H28">
       <formula1>"En proceso,No iniciada,Terminada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K3:K28">
       <formula1>"Alta,Medio,Media,Baja"</formula1>
     </dataValidation>
   </dataValidations>
